--- a/entrada.xlsx
+++ b/entrada.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Nos" sheetId="1" state="visible" r:id="rId2"/>
@@ -285,7 +285,7 @@
   <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="A9:B11 A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -472,8 +472,8 @@
   </sheetPr>
   <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C28" activeCellId="0" sqref="C28"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="M11" activeCellId="1" sqref="A9:B11 M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -890,7 +890,7 @@
   <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+      <selection pane="topLeft" activeCell="C2" activeCellId="1" sqref="A9:B11 C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1100,8 +1100,8 @@
   </sheetPr>
   <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A13" activeCellId="0" sqref="A13"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A9" activeCellId="0" sqref="A9:B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1131,7 +1131,7 @@
       <c r="C2" s="4"/>
       <c r="D2" s="5" t="n">
         <f aca="false">COUNT(A2:A1048576)</f>
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1145,21 +1145,21 @@
       <c r="D3" s="4"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="4" t="n">
+      <c r="A4" s="7" t="n">
         <v>2</v>
       </c>
-      <c r="B4" s="4" t="n">
-        <v>1</v>
+      <c r="B4" s="7" t="n">
+        <v>2</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="7" t="n">
-        <v>2</v>
-      </c>
-      <c r="B5" s="7" t="n">
-        <v>2</v>
+      <c r="A5" s="4" t="n">
+        <v>15</v>
+      </c>
+      <c r="B5" s="4" t="n">
+        <v>1</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
@@ -1169,17 +1169,17 @@
         <v>15</v>
       </c>
       <c r="B6" s="4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="4" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="B7" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
@@ -1189,14 +1189,14 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="4" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B9" s="4" t="n">
         <v>2</v>
@@ -1206,7 +1206,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="4" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="B10" s="4" t="n">
         <v>1</v>
@@ -1216,7 +1216,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="4" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="B11" s="4" t="n">
         <v>2</v>
@@ -1225,22 +1225,10 @@
       <c r="D11" s="4"/>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="4" t="n">
-        <v>16</v>
-      </c>
-      <c r="B12" s="4" t="n">
-        <v>1</v>
-      </c>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="4" t="n">
-        <v>16</v>
-      </c>
-      <c r="B13" s="4" t="n">
-        <v>2</v>
-      </c>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
     </row>
